--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H2">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I2">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J2">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>74.02738144665655</v>
+        <v>54.73324553391667</v>
       </c>
       <c r="R2">
-        <v>666.246433019909</v>
+        <v>492.59920980525</v>
       </c>
       <c r="S2">
-        <v>0.01650068150884454</v>
+        <v>0.01662125965805613</v>
       </c>
       <c r="T2">
-        <v>0.01650068150884453</v>
+        <v>0.01662125965805613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H3">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I3">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J3">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>39.52308316514056</v>
+        <v>34.23132007354167</v>
       </c>
       <c r="R3">
-        <v>355.707748486265</v>
+        <v>308.081880661875</v>
       </c>
       <c r="S3">
-        <v>0.008809683590192888</v>
+        <v>0.01039528450816591</v>
       </c>
       <c r="T3">
-        <v>0.008809683590192885</v>
+        <v>0.01039528450816591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H4">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I4">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J4">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>88.90897880363022</v>
+        <v>38.37577453795834</v>
       </c>
       <c r="R4">
-        <v>800.1808092326719</v>
+        <v>345.381970841625</v>
       </c>
       <c r="S4">
-        <v>0.01981778517415831</v>
+        <v>0.01165386241857637</v>
       </c>
       <c r="T4">
-        <v>0.0198177851741583</v>
+        <v>0.01165386241857637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H5">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I5">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J5">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>6.766813806075556</v>
+        <v>4.919114841458332</v>
       </c>
       <c r="R5">
-        <v>60.90132425468</v>
+        <v>44.27203357312499</v>
       </c>
       <c r="S5">
-        <v>0.00150832080321744</v>
+        <v>0.001493824900571828</v>
       </c>
       <c r="T5">
-        <v>0.00150832080321744</v>
+        <v>0.001493824900571828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H6">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I6">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J6">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>54.64319647171935</v>
+        <v>38.89979274545833</v>
       </c>
       <c r="R6">
-        <v>491.788768245474</v>
+        <v>350.098134709125</v>
       </c>
       <c r="S6">
-        <v>0.01217995239038381</v>
+        <v>0.01181299500074728</v>
       </c>
       <c r="T6">
-        <v>0.0121799523903838</v>
+        <v>0.01181299500074728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H7">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I7">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J7">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>1143.820608657226</v>
+        <v>976.4362631473242</v>
       </c>
       <c r="R7">
-        <v>10294.38547791503</v>
+        <v>8787.926368325918</v>
       </c>
       <c r="S7">
-        <v>0.2549572765896885</v>
+        <v>0.2965218033572789</v>
       </c>
       <c r="T7">
-        <v>0.2549572765896885</v>
+        <v>0.2965218033572787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H8">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I8">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J8">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>610.6837248395339</v>
       </c>
       <c r="R8">
-        <v>5496.153523555805</v>
+        <v>5496.153523555804</v>
       </c>
       <c r="S8">
-        <v>0.1361212223003346</v>
+        <v>0.1854509569182576</v>
       </c>
       <c r="T8">
-        <v>0.1361212223003346</v>
+        <v>0.1854509569182575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +977,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H9">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I9">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J9">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>1373.760901208451</v>
+        <v>684.620426208934</v>
       </c>
       <c r="R9">
-        <v>12363.84811087606</v>
+        <v>6161.583835880406</v>
       </c>
       <c r="S9">
-        <v>0.3062109000367417</v>
+        <v>0.207903875610233</v>
       </c>
       <c r="T9">
-        <v>0.3062109000367417</v>
+        <v>0.2079038756102329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H10">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I10">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J10">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>104.5561917101289</v>
+        <v>87.75657403341275</v>
       </c>
       <c r="R10">
-        <v>941.00572539116</v>
+        <v>789.8091663007148</v>
       </c>
       <c r="S10">
-        <v>0.02330554431983693</v>
+        <v>0.02664970420595486</v>
       </c>
       <c r="T10">
-        <v>0.02330554431983693</v>
+        <v>0.02664970420595486</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,13 +1101,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H11">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I11">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J11">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>844.3094031672156</v>
+        <v>693.9688647194073</v>
       </c>
       <c r="R11">
-        <v>7598.78462850494</v>
+        <v>6245.719782474665</v>
       </c>
       <c r="S11">
-        <v>0.1881963171508894</v>
+        <v>0.2107427868124503</v>
       </c>
       <c r="T11">
-        <v>0.1881963171508894</v>
+        <v>0.2107427868124502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H12">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I12">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J12">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>13.19823168937211</v>
+        <v>21.85407941912178</v>
       </c>
       <c r="R12">
-        <v>118.784085204349</v>
+        <v>196.6867147720961</v>
       </c>
       <c r="S12">
-        <v>0.002941881954087468</v>
+        <v>0.006636593994556974</v>
       </c>
       <c r="T12">
-        <v>0.002941881954087468</v>
+        <v>0.006636593994556971</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H13">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I13">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J13">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>7.046511689296111</v>
+        <v>13.66799977255111</v>
       </c>
       <c r="R13">
-        <v>63.418605203665</v>
+        <v>123.01199795296</v>
       </c>
       <c r="S13">
-        <v>0.001570665378961296</v>
+        <v>0.004150665121531071</v>
       </c>
       <c r="T13">
-        <v>0.001570665378961296</v>
+        <v>0.004150665121531069</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,14 +1269,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H14">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I14">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J14">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>15.85144953913244</v>
+        <v>15.32281187314489</v>
       </c>
       <c r="R14">
-        <v>142.663045852192</v>
+        <v>137.905306858304</v>
       </c>
       <c r="S14">
-        <v>0.003533283430904853</v>
+        <v>0.004653194458882688</v>
       </c>
       <c r="T14">
-        <v>0.003533283430904853</v>
+        <v>0.004653194458882686</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H15">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I15">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J15">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>1.206445164831111</v>
+        <v>1.964121172942222</v>
       </c>
       <c r="R15">
-        <v>10.85800648348</v>
+        <v>17.67709055648</v>
       </c>
       <c r="S15">
-        <v>0.0002689162717056057</v>
+        <v>0.0005964595685291222</v>
       </c>
       <c r="T15">
-        <v>0.0002689162717056057</v>
+        <v>0.0005964595685291221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H16">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I16">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J16">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>9.742254192812668</v>
+        <v>15.53204367389156</v>
       </c>
       <c r="R16">
-        <v>87.68028773531401</v>
+        <v>139.788393065024</v>
       </c>
       <c r="S16">
-        <v>0.002171545588569074</v>
+        <v>0.00471673346620828</v>
       </c>
       <c r="T16">
-        <v>0.002171545588569074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.744584</v>
-      </c>
-      <c r="I17">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J17">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>101.7913436666667</v>
-      </c>
-      <c r="N17">
-        <v>305.374031</v>
-      </c>
-      <c r="O17">
-        <v>0.2805454758424659</v>
-      </c>
-      <c r="P17">
-        <v>0.2805454758424659</v>
-      </c>
-      <c r="Q17">
-        <v>25.26406861090044</v>
-      </c>
-      <c r="R17">
-        <v>227.376617498104</v>
-      </c>
-      <c r="S17">
-        <v>0.00563135344813541</v>
-      </c>
-      <c r="T17">
-        <v>0.005631353448135409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.744584</v>
-      </c>
-      <c r="I18">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J18">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>54.34621166666667</v>
-      </c>
-      <c r="N18">
-        <v>163.038635</v>
-      </c>
-      <c r="O18">
-        <v>0.1497827149446808</v>
-      </c>
-      <c r="P18">
-        <v>0.1497827149446808</v>
-      </c>
-      <c r="Q18">
-        <v>13.48843988920444</v>
-      </c>
-      <c r="R18">
-        <v>121.39595900284</v>
-      </c>
-      <c r="S18">
-        <v>0.003006569276306735</v>
-      </c>
-      <c r="T18">
-        <v>0.003006569276306735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.744584</v>
-      </c>
-      <c r="I19">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J19">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>122.2542826666667</v>
-      </c>
-      <c r="N19">
-        <v>366.762848</v>
-      </c>
-      <c r="O19">
-        <v>0.3369430510399163</v>
-      </c>
-      <c r="P19">
-        <v>0.3369430510399163</v>
-      </c>
-      <c r="Q19">
-        <v>30.34286093502578</v>
-      </c>
-      <c r="R19">
-        <v>273.085748415232</v>
-      </c>
-      <c r="S19">
-        <v>0.006763414760480283</v>
-      </c>
-      <c r="T19">
-        <v>0.006763414760480281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.744584</v>
-      </c>
-      <c r="I20">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J20">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>9.304706666666666</v>
-      </c>
-      <c r="N20">
-        <v>27.91412</v>
-      </c>
-      <c r="O20">
-        <v>0.02564455154382035</v>
-      </c>
-      <c r="P20">
-        <v>0.02564455154382035</v>
-      </c>
-      <c r="Q20">
-        <v>2.309378569564444</v>
-      </c>
-      <c r="R20">
-        <v>20.78440712608</v>
-      </c>
-      <c r="S20">
-        <v>0.0005147598025899774</v>
-      </c>
-      <c r="T20">
-        <v>0.0005147598025899773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.744584</v>
-      </c>
-      <c r="I21">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J21">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>75.13712200000002</v>
-      </c>
-      <c r="N21">
-        <v>225.411366</v>
-      </c>
-      <c r="O21">
-        <v>0.2070842066291166</v>
-      </c>
-      <c r="P21">
-        <v>0.2070842066291166</v>
-      </c>
-      <c r="Q21">
-        <v>18.64863294908267</v>
-      </c>
-      <c r="R21">
-        <v>167.837696541744</v>
-      </c>
-      <c r="S21">
-        <v>0.004156774788662411</v>
-      </c>
-      <c r="T21">
-        <v>0.004156774788662409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.067999</v>
-      </c>
-      <c r="I22">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J22">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>101.7913436666667</v>
-      </c>
-      <c r="N22">
-        <v>305.374031</v>
-      </c>
-      <c r="O22">
-        <v>0.2805454758424659</v>
-      </c>
-      <c r="P22">
-        <v>0.2805454758424659</v>
-      </c>
-      <c r="Q22">
-        <v>2.307236525996555</v>
-      </c>
-      <c r="R22">
-        <v>20.765128733969</v>
-      </c>
-      <c r="S22">
-        <v>0.0005142823417099477</v>
-      </c>
-      <c r="T22">
-        <v>0.0005142823417099477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.067999</v>
-      </c>
-      <c r="I23">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J23">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>54.34621166666667</v>
-      </c>
-      <c r="N23">
-        <v>163.038635</v>
-      </c>
-      <c r="O23">
-        <v>0.1497827149446808</v>
-      </c>
-      <c r="P23">
-        <v>0.1497827149446808</v>
-      </c>
-      <c r="Q23">
-        <v>1.231829349040556</v>
-      </c>
-      <c r="R23">
-        <v>11.086464141365</v>
-      </c>
-      <c r="S23">
-        <v>0.000274574398885259</v>
-      </c>
-      <c r="T23">
-        <v>0.000274574398885259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.067999</v>
-      </c>
-      <c r="I24">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J24">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>122.2542826666667</v>
-      </c>
-      <c r="N24">
-        <v>366.762848</v>
-      </c>
-      <c r="O24">
-        <v>0.3369430510399163</v>
-      </c>
-      <c r="P24">
-        <v>0.3369430510399163</v>
-      </c>
-      <c r="Q24">
-        <v>2.771056322350222</v>
-      </c>
-      <c r="R24">
-        <v>24.939506901152</v>
-      </c>
-      <c r="S24">
-        <v>0.0006176676376310782</v>
-      </c>
-      <c r="T24">
-        <v>0.0006176676376310782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.067999</v>
-      </c>
-      <c r="I25">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J25">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>9.304706666666666</v>
-      </c>
-      <c r="N25">
-        <v>27.91412</v>
-      </c>
-      <c r="O25">
-        <v>0.02564455154382035</v>
-      </c>
-      <c r="P25">
-        <v>0.02564455154382035</v>
-      </c>
-      <c r="Q25">
-        <v>0.2109035828755556</v>
-      </c>
-      <c r="R25">
-        <v>1.89813224588</v>
-      </c>
-      <c r="S25">
-        <v>4.70103464703994E-05</v>
-      </c>
-      <c r="T25">
-        <v>4.70103464703994E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.067999</v>
-      </c>
-      <c r="I26">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J26">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>75.13712200000002</v>
-      </c>
-      <c r="N26">
-        <v>225.411366</v>
-      </c>
-      <c r="O26">
-        <v>0.2070842066291166</v>
-      </c>
-      <c r="P26">
-        <v>0.2070842066291166</v>
-      </c>
-      <c r="Q26">
-        <v>1.703083052959334</v>
-      </c>
-      <c r="R26">
-        <v>15.327747476634</v>
-      </c>
-      <c r="S26">
-        <v>0.0003796167106119057</v>
-      </c>
-      <c r="T26">
-        <v>0.0003796167106119057</v>
+        <v>0.004716733466208279</v>
       </c>
     </row>
   </sheetData>
